--- a/RF.xlsx
+++ b/RF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\OneDrive\Documentos\U\JuanCarlos\MetalK_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\6 Sexto Semestre\JuanCarlos\MetalK_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1A762B-0715-4F47-A546-6A7F4F0CE985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A0680-AC75-4BAB-8D44-3966DA7DAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{8F7574D0-AC0C-4C4F-95DB-BA0D2F86BEAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{8F7574D0-AC0C-4C4F-95DB-BA0D2F86BEAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
   <si>
     <t>1. El aplicativo debe requerir al administrador que esté registrado para acceder a la plataforma de gestión.</t>
   </si>
@@ -186,42 +186,6 @@
     <t>RF038</t>
   </si>
   <si>
-    <t>RF039</t>
-  </si>
-  <si>
-    <t>RF040</t>
-  </si>
-  <si>
-    <t>RF041</t>
-  </si>
-  <si>
-    <t>RF042</t>
-  </si>
-  <si>
-    <t>RF043</t>
-  </si>
-  <si>
-    <t>RF044</t>
-  </si>
-  <si>
-    <t>RF045</t>
-  </si>
-  <si>
-    <t>RF046</t>
-  </si>
-  <si>
-    <t>RF047</t>
-  </si>
-  <si>
-    <t>RF048</t>
-  </si>
-  <si>
-    <t>RF049</t>
-  </si>
-  <si>
-    <t>RF050</t>
-  </si>
-  <si>
     <t>Iniciar sesión</t>
   </si>
   <si>
@@ -240,9 +204,6 @@
     <t>Productos</t>
   </si>
   <si>
-    <t>Registrar prorductos</t>
-  </si>
-  <si>
     <t>Subir imágenes del producto</t>
   </si>
   <si>
@@ -273,21 +234,6 @@
     <t>Interesado</t>
   </si>
   <si>
-    <t>Editar descripcion de la empresa</t>
-  </si>
-  <si>
-    <t>El ingreso de informacion se hara por medio de un formulario, la descripcion no debe superar los 500 caracteres</t>
-  </si>
-  <si>
-    <t>Cambiar logo de la empresa</t>
-  </si>
-  <si>
-    <t>Visualizar información de contacto de la empresa</t>
-  </si>
-  <si>
-    <t>Visualizar descripción de la empresa</t>
-  </si>
-  <si>
     <t>4. El aplicativo, al registrar un producto, debe requerir subir una o más imágenes relacionadas a el.</t>
   </si>
   <si>
@@ -297,106 +243,244 @@
     <t>13. El aplicativo debe permitir al administrador eliminar imágenes contextuales de la empresa.</t>
   </si>
   <si>
-    <t>22. El aplicativo debe permitir al administrador agregar categorías.</t>
-  </si>
-  <si>
-    <t>23. El aplicativo debe permitir al administrador agregar categorías principales.</t>
-  </si>
-  <si>
-    <t>24. El aplicativo debe permitir al administrador agregar subcategorías relacionadas con las categorías principales .</t>
-  </si>
-  <si>
-    <t>25. El aplicativo debe permitir al administrador agrupar categorías.</t>
-  </si>
-  <si>
-    <t>26. El aplicativo debe permitir al administrador asignar un icono a cada grupo de categorías.</t>
-  </si>
-  <si>
-    <t>27. El aplicativo debe permitir al administrador asignar un icono a cada subcategoría relacionada a las categorías principales.</t>
-  </si>
-  <si>
-    <t>28. El aplicativo debe permitir al administrador editar los grupos de categorías registrados.</t>
-  </si>
-  <si>
-    <t>29. El aplicativo debe permitir al administrador eliminar los grupos de categorías registrados.</t>
-  </si>
-  <si>
-    <t>31. El aplicativo debe permitir al administrador editar las categorías registradas.</t>
-  </si>
-  <si>
-    <t>32. El aplicativo debe permitir al administrador eliminar categorías registradas.</t>
-  </si>
-  <si>
-    <t>34. El aplicativo debe permitir al administrador editar las categorías registradas.</t>
-  </si>
-  <si>
-    <t>35. El aplicativo debe permitir al administrador eliminar categorías registradas.</t>
-  </si>
-  <si>
-    <t>37. El aplicativo debe permitir al interesado solicitar los servicios de la empresa.</t>
-  </si>
-  <si>
-    <t>39. El aplicativo debe permitir al interesado elegir las opciones de personalización del producto en el momento de solicitar el servicio.</t>
-  </si>
-  <si>
-    <t>40. El aplicativo debe solicitar al interesado información relevante para la prestación del servicio en el momento de solicitarlo por medio de un formulario.</t>
-  </si>
-  <si>
-    <t>41. El aplicativo debe permitir al interesado anexar planos de su producto en el momento de solicitar el servicio  por medio de un formulario.</t>
-  </si>
-  <si>
-    <t>42. El aplicativo, en caso de que el interesado anexe planos en el momento de solicitar el servicio, debe permitir al interesado elegir la necesidad de una visita técnica por medio de un formulario, de lo contrario, la visita técnica será obligatoria.</t>
-  </si>
-  <si>
-    <t>43. El aplicativo debe enviar un mensaje con las preferencias elegidas  y la información proveída por el interesado después de solicitar el servicio por medio de Whatsapp.</t>
-  </si>
-  <si>
-    <t>44. El aplicativo debe enviar un mensaje de notificación al administrador por medio de Whatsapp cuando un interesado solicite el servicio.</t>
-  </si>
-  <si>
     <t>9. El aplicativo debe  permitir visualizar nombre, slogan, logo, descripción, dirección y teléfono de la empresa.</t>
   </si>
   <si>
-    <t>11. El aplicativo debe permitir visualizar imágenes contextuales de la empresa en conjunto a la descripción.</t>
-  </si>
-  <si>
     <t>12. El aplicativo debe permitir al administrador  agregar imágenes contextuales de la empresa.</t>
   </si>
   <si>
-    <t>14. El aplicativo debe  permitir visualizar tanto a los interesados como a los administradores un listado de los productos registrados.</t>
-  </si>
-  <si>
-    <t>15. El aplicativo debe permitir a los usuarios visualizar las imágenes relacionadas a cada producto en el momento de  permitir visualizarlas.</t>
-  </si>
-  <si>
-    <t>16. El aplicativo debe permitir filtrar por una o más categorías relacionadas a los productos  en el momento de  permitir visualizarlos.</t>
-  </si>
-  <si>
-    <t>17. El aplicativo, en caso de que el interesado no filtre los productos, debe listarlos de manera aleatoria, priorizando los más recientes  en el momento de  permitir visualizarlos.</t>
-  </si>
-  <si>
-    <t>18. El aplicativo, en caso de que el administrador no filtre los productos, debe organizar los en orden cronológico, partiendo del más reciente en el momento de  permitir visualizarlos.</t>
-  </si>
-  <si>
-    <t>19. El aplicativo debe permitir a los usuarios agrupar los productos por una de las listas de categorías en el momento de  permitir visualizarlos.</t>
-  </si>
-  <si>
-    <t>20. El aplicativo debe  permitir visualizar al interesado las características más relevantes con una breve descripción.</t>
-  </si>
-  <si>
-    <t>21. El aplicativo debe siempre permitir al interesado conocer el precio y el tiempo que tomó los productos en el momento de  permitir visualizarlos.</t>
-  </si>
-  <si>
-    <t>30. El aplicativo debe  permitir visualizar al administrador un listado de los grupos de categorías registrados.</t>
-  </si>
-  <si>
-    <t>33. El aplicativo debe  permitir visualizar al administrador un listado de las categorías registradas.</t>
-  </si>
-  <si>
-    <t>36. El aplicativo debe  permitir visualizar al administrador un listado de las categorías registradas.</t>
-  </si>
-  <si>
-    <t>38. El aplicativo debe  permitir visualizar al interesado las opciones de personalización del producto definidas por la empresa en el momento de solicitar el servicio.</t>
+    <t>Editar informacion de la emrpesa de la empresa</t>
+  </si>
+  <si>
+    <t>Administrador, Interesado</t>
+  </si>
+  <si>
+    <t>Visualizar informacion de la empresa</t>
+  </si>
+  <si>
+    <t>La informacion no tiene que estar en una sola seccion</t>
+  </si>
+  <si>
+    <t>Visualizar imagenes empresariales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La imagenes tiene que ser mostradas de manera dinamica </t>
+  </si>
+  <si>
+    <t>El ingreso de las imagenes se hara por medio de un formulario</t>
+  </si>
+  <si>
+    <t>Agregar imagenes empresarial</t>
+  </si>
+  <si>
+    <t>11. El aplicativo debe permitir  visualizar imágenes contextuales de la empresa en conjunto a la descripción.</t>
+  </si>
+  <si>
+    <t>Visualizar productos</t>
+  </si>
+  <si>
+    <t>Eliminar imagenes empresariales</t>
+  </si>
+  <si>
+    <t>14. El aplicativo debe  permitir visualizar la información de los productos registrados con sus imágenes relacionadas.</t>
+  </si>
+  <si>
+    <t>15. El aplicativo debe permitir filtrar por una o más categorías relacionadas a los productos  en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>16. El aplicativo, en caso de que el interesado no filtre los productos, debe listarlos de manera aleatoria, priorizando los más recientes  en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>17. El aplicativo, en caso de que el administrador no filtre los productos, debe organizar los en orden cronológico, partiendo del más reciente en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>18. El aplicativo debe permitir a los usuarios agrupar los productos por una de las listas de categorías en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>Se puede seleccionar una opcion por cada listado de categorias</t>
+  </si>
+  <si>
+    <t>Portafolio</t>
+  </si>
+  <si>
+    <t>Se debe priorizar la aparicion de los trabajos mas recientes</t>
+  </si>
+  <si>
+    <t>Organizar aleatoriamente los productos</t>
+  </si>
+  <si>
+    <t>Filtrar productos por categorias</t>
+  </si>
+  <si>
+    <t>Organizar cronologicamente los productos</t>
+  </si>
+  <si>
+    <t>De manera descendente</t>
+  </si>
+  <si>
+    <t>Agrupar productos por un listado de categorias</t>
+  </si>
+  <si>
+    <t>Visualizar principales caracteristica del producto</t>
+  </si>
+  <si>
+    <t>Debe solo mostrar las primeras 4 caracteristicas relacionadas al producto, ademas del precio y el tiempo tomado.</t>
+  </si>
+  <si>
+    <t>19.  El aplicativo debe  permitir al interesado visualizar las características más relevantes con una breve descripción, incluyendo el el precio y el tiempo que tomó en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>20. El aplicativo debe permitir al administrador agregar categorías.</t>
+  </si>
+  <si>
+    <t>21. El aplicativo debe permitir al administrador agregar categorías principales.</t>
+  </si>
+  <si>
+    <t>22. El aplicativo debe permitir al administrador agregar subcategorías relacionadas con las categorías principales .</t>
+  </si>
+  <si>
+    <t>24. El aplicativo debe permitir al administrador asignar un icono a cada grupo de categorías.</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Agregar categorias</t>
+  </si>
+  <si>
+    <t>Agregar categorias principales</t>
+  </si>
+  <si>
+    <t>Agrugar subcategorias</t>
+  </si>
+  <si>
+    <t>Las subcategorias deben estar relacionadas con una categoria principal</t>
+  </si>
+  <si>
+    <t>Agrupar categorias</t>
+  </si>
+  <si>
+    <t>Todas las las categorias deben estar asociadas a una palabra clave</t>
+  </si>
+  <si>
+    <t>Asignar icono a grupo de categorias</t>
+  </si>
+  <si>
+    <t>25. El aplicativo debe permitir al administrador asignar un icono a cada  categoría principal.</t>
+  </si>
+  <si>
+    <t>23. El aplicativo debe permitir al administrador agrupar categorías por una palabra clave.</t>
+  </si>
+  <si>
+    <t>27. El aplicativo debe permitir al administrador editar las categorías registradas.</t>
+  </si>
+  <si>
+    <t>28. El aplicativo debe permitir al administrador eliminar categorías registradas.</t>
+  </si>
+  <si>
+    <t>29. El aplicativo debe permitir al interesado solicitar los servicios de la empresa.</t>
+  </si>
+  <si>
+    <t>Asignar icono a categoria principal</t>
+  </si>
+  <si>
+    <t>26. El aplicativo debe  permitir visualizar al administrador las categorías registradas.</t>
+  </si>
+  <si>
+    <t>Visualizar categoria</t>
+  </si>
+  <si>
+    <t>Editar categoria</t>
+  </si>
+  <si>
+    <t>Eliminar categoria</t>
+  </si>
+  <si>
+    <t>Registrar prorducto</t>
+  </si>
+  <si>
+    <t>Solicitud</t>
+  </si>
+  <si>
+    <t>Solicitar servicio</t>
+  </si>
+  <si>
+    <t>Visualizar opciones de personalizacion</t>
+  </si>
+  <si>
+    <t>Cada opcion de personalizacion debe contar con una breve descripcion</t>
+  </si>
+  <si>
+    <t>30. El aplicativo debe  permitir al interesado visualizar  las opciones de personalización del producto definidas por la empresa en el momento de solicitar el servicio.</t>
+  </si>
+  <si>
+    <t>31. El aplicativo debe permitir al interesado visualizar un portafolio reducido relacionado a cada opcion de personalizacion</t>
+  </si>
+  <si>
+    <t>32. El aplicativo debe permitir al interesado aleatorizar los productos del portafolio reducido  de cada opcion de personalizacion</t>
+  </si>
+  <si>
+    <t>33. El aplicativo debe permitir al interesado elegir las opciones de personalización del producto en el momento de solicitar el servicio.</t>
+  </si>
+  <si>
+    <t>35. El aplicativo debe permitir al interesado anexar planos de su producto en el momento de solicitar el servicio  por medio de un formulario.</t>
+  </si>
+  <si>
+    <t>36. El aplicativo, en caso de que el interesado anexe planos en el momento de solicitar el servicio, debe permitir al interesado elegir la necesidad de una visita técnica por medio de un formulario, de lo contrario, la visita técnica será obligatoria.</t>
+  </si>
+  <si>
+    <t>37. El aplicativo debe enviar un mensaje con las preferencias elegidas  y la información proveída por el interesado después de solicitar el servicio por medio de Whatsapp.</t>
+  </si>
+  <si>
+    <t>38. El aplicativo debe enviar un mensaje de notificación al administrador por medio de Whatsapp cuando un interesado solicite el servicio.</t>
+  </si>
+  <si>
+    <t>Visualizar protafolio reducido</t>
+  </si>
+  <si>
+    <t>Cada opcion de personalizacion debe contar con una conjunto de maximo 5 productos.</t>
+  </si>
+  <si>
+    <t>Aleatorizar portafolio reducido</t>
+  </si>
+  <si>
+    <t>Cada portafolio reducido puede cambiar sus productos mientras tenga los suficientes</t>
+  </si>
+  <si>
+    <t>Elegir opciones de personalizacion</t>
+  </si>
+  <si>
+    <t>El registro de elecciones se hara por medio de un formulario</t>
+  </si>
+  <si>
+    <t>34. El aplicativo debe permitir al interesado proveer de la información relevante para la prestación del servicio en el momento de solicitarlo</t>
+  </si>
+  <si>
+    <t>Proveer de informacion para servicio</t>
+  </si>
+  <si>
+    <t>Anexar planos</t>
+  </si>
+  <si>
+    <t>Es opcional</t>
+  </si>
+  <si>
+    <t>Solicitar visita tecnica</t>
+  </si>
+  <si>
+    <t>Sera opcional si se anexan planos al solicitar el servicio, de lo contrario es obligatorio</t>
+  </si>
+  <si>
+    <t>Enviar mensaje de solicitud</t>
+  </si>
+  <si>
+    <t>Enviar mensaje de notificacion de solicitud</t>
+  </si>
+  <si>
+    <t>Sistema, Whatsapp,Intersado</t>
+  </si>
+  <si>
+    <t>Sistema, Whatsapp, Administrador</t>
   </si>
 </sst>
 </file>
@@ -438,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -461,11 +545,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -485,6 +580,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,18 +897,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE85C938-6F77-4D8A-A1A5-328184A55C44}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="9" max="9" width="77.7109375" customWidth="1"/>
+    <col min="7" max="7" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -829,26 +927,30 @@
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("usecase '",C2,"' as ",A2)</f>
+        <v>usecase 'Iniciar sesión' as RF001</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -856,19 +958,23 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I40" si="0">_xlfn.CONCAT("usecase '",C3,"' as ",A3)</f>
+        <v>usecase 'Recuperar clave' as RF002</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -876,19 +982,23 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Registrar prorducto' as RF003</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -896,19 +1006,23 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Subir imágenes del producto' as RF004</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -916,19 +1030,23 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Relacionar categorias  al producto' as RF005</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -936,19 +1054,23 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Relacionar categoria principal al producto' as RF006</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -956,19 +1078,23 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Editar producto' as RF007</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -976,17 +1102,21 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase ' Eliminar producto' as RF008</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -994,37 +1124,47 @@
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="I10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar informacion de la empresa' as RF009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Editar informacion de la emrpesa de la empresa' as RF010</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1032,19 +1172,23 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar imagenes empresariales' as RF011</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,465 +1196,628 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="I13" s="2" t="s">
-        <v>108</v>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Agregar imagenes empresarial' as RF012</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="I14" s="2" t="s">
-        <v>86</v>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Eliminar imagenes empresariales' as RF013</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="I15" s="2" t="s">
-        <v>109</v>
+      <c r="G15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar productos' as RF014</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="I16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Filtrar productos por categorias' as RF015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="I17" s="2" t="s">
-        <v>111</v>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Organizar aleatoriamente los productos' as RF016</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="I18" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Organizar cronologicamente los productos' as RF017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="I19" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Agrupar productos por un listado de categorias' as RF018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="I20" s="2" t="s">
-        <v>114</v>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar principales caracteristica del producto' as RF019</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="I21" s="2" t="s">
-        <v>115</v>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Agregar categorias' as RF020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="I22" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Agregar categorias principales' as RF021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="I23" s="2" t="s">
-        <v>87</v>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Agrugar subcategorias' as RF022</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="I24" s="2" t="s">
-        <v>88</v>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Agrupar categorias' as RF023</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="I25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Asignar icono a grupo de categorias' as RF024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="I26" s="2" t="s">
-        <v>90</v>
+      <c r="G26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Asignar icono a categoria principal' as RF025</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="I27" s="2" t="s">
-        <v>91</v>
+      <c r="G27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar categoria' as RF026</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="I28" s="2" t="s">
-        <v>92</v>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Editar categoria' as RF027</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="5"/>
-      <c r="I29" s="2" t="s">
-        <v>93</v>
+      <c r="G29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Eliminar categoria' as RF028</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E30" s="5"/>
-      <c r="I30" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Solicitar servicio' as RF029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="I31" s="2" t="s">
-        <v>117</v>
+      <c r="B31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar opciones de personalizacion' as RF030</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="I32" s="2" t="s">
-        <v>95</v>
+      <c r="B32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Visualizar protafolio reducido' as RF031</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="I33" s="2" t="s">
-        <v>96</v>
+      <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Aleatorizar portafolio reducido' as RF032</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="I34" s="2" t="s">
-        <v>118</v>
+      <c r="B34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Elegir opciones de personalizacion' as RF033</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="I35" s="2" t="s">
-        <v>97</v>
+      <c r="B35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Proveer de informacion para servicio' as RF034</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="I36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Anexar planos' as RF035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="I37" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Solicitar visita tecnica' as RF036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E38" s="5"/>
-      <c r="I38" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Enviar mensaje de solicitud' as RF037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="E39" s="5"/>
-      <c r="I39" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="I40" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="I41" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="I42" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="I43" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="I44" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="I45" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'Enviar mensaje de notificacion de solicitud' as RF038</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1520,15 +1827,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100609AB960DD10A74DA5B1E40C7DD2641B" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0acc7ea0910c9d1ae7df0ca63b335fb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xmlns:ns4="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f302217f2d4eb73d18310563738762c6" ns3:_="" ns4:_="">
     <xsd:import namespace="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
@@ -1769,6 +2067,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1778,14 +2085,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28557432-E02E-43EB-985A-CF345F1841C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79AF36BC-0DF6-41DA-8468-07D1B0C1A527}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1800,6 +2099,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28557432-E02E-43EB-985A-CF345F1841C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/RF.xlsx
+++ b/RF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\6 Sexto Semestre\JuanCarlos\MetalK_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A0680-AC75-4BAB-8D44-3966DA7DAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B380B0E3-634E-415E-A299-7D484F839FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{8F7574D0-AC0C-4C4F-95DB-BA0D2F86BEAF}"/>
   </bookViews>
@@ -900,7 +900,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I40" si="0">_xlfn.CONCAT("usecase '",C3,"' as ",A3)</f>
+        <f t="shared" ref="I3:I39" si="0">_xlfn.CONCAT("usecase '",C3,"' as ",A3)</f>
         <v>usecase 'Recuperar clave' as RF002</v>
       </c>
     </row>
@@ -1827,6 +1827,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100609AB960DD10A74DA5B1E40C7DD2641B" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0acc7ea0910c9d1ae7df0ca63b335fb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xmlns:ns4="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f302217f2d4eb73d18310563738762c6" ns3:_="" ns4:_="">
     <xsd:import namespace="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
@@ -2067,24 +2084,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAED4DD-8F59-4A9D-BE05-DB347B1D4B84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f"/>
+    <ds:schemaRef ds:uri="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28557432-E02E-43EB-985A-CF345F1841C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79AF36BC-0DF6-41DA-8468-07D1B0C1A527}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2101,29 +2126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28557432-E02E-43EB-985A-CF345F1841C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAED4DD-8F59-4A9D-BE05-DB347B1D4B84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f"/>
-    <ds:schemaRef ds:uri="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RF.xlsx
+++ b/RF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\6 Sexto Semestre\JuanCarlos\MetalK_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\OneDrive\Documentos\U\JuanCarlos\MetalK_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A0680-AC75-4BAB-8D44-3966DA7DAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A82F93-8A83-45AB-8016-ACB90F660354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{8F7574D0-AC0C-4C4F-95DB-BA0D2F86BEAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{8F7574D0-AC0C-4C4F-95DB-BA0D2F86BEAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>1. El aplicativo debe requerir al administrador que esté registrado para acceder a la plataforma de gestión.</t>
   </si>
   <si>
-    <t>2. El aplicativo debe permitir recuperar la clave de acceso a los administradores por medio de un mensaje enviado por medio de Whatsapp.</t>
-  </si>
-  <si>
     <t>3. El aplicativo debe permitir a los administradores registrar los productos.</t>
   </si>
   <si>
-    <t>5. El aplicativo, al registrar un producto, debe permitir relacionarlo a diferentes categorías.</t>
-  </si>
-  <si>
     <t>6. El aplicativo, al registrar un producto, debe asegurar que este esté relacionado a una categoría principal.</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>Recuperar clave</t>
   </si>
   <si>
-    <t>Autenticación</t>
-  </si>
-  <si>
     <t>Se recordara la contraseña por medio de un mensaje de whatsapp</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>El ingreso de informacion se hara por medio de un formulario, donde minimo se suba una imagen</t>
   </si>
   <si>
-    <t>Relacionar categorias  al producto</t>
-  </si>
-  <si>
     <t>Relacionar categoria principal al producto</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>El ingreso de informacion se hara por medio de un formulario, donde se requerira una categoria principal registrada.</t>
   </si>
   <si>
-    <t>Editar producto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Eliminar producto</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>Agregar imagenes empresarial</t>
   </si>
   <si>
-    <t>11. El aplicativo debe permitir  visualizar imágenes contextuales de la empresa en conjunto a la descripción.</t>
-  </si>
-  <si>
     <t>Visualizar productos</t>
   </si>
   <si>
@@ -285,18 +267,12 @@
     <t>14. El aplicativo debe  permitir visualizar la información de los productos registrados con sus imágenes relacionadas.</t>
   </si>
   <si>
-    <t>15. El aplicativo debe permitir filtrar por una o más categorías relacionadas a los productos  en el momento de visualizarlos.</t>
-  </si>
-  <si>
     <t>16. El aplicativo, en caso de que el interesado no filtre los productos, debe listarlos de manera aleatoria, priorizando los más recientes  en el momento de visualizarlos.</t>
   </si>
   <si>
     <t>17. El aplicativo, en caso de que el administrador no filtre los productos, debe organizar los en orden cronológico, partiendo del más reciente en el momento de visualizarlos.</t>
   </si>
   <si>
-    <t>18. El aplicativo debe permitir a los usuarios agrupar los productos por una de las listas de categorías en el momento de visualizarlos.</t>
-  </si>
-  <si>
     <t>Se puede seleccionar una opcion por cada listado de categorias</t>
   </si>
   <si>
@@ -318,84 +294,21 @@
     <t>De manera descendente</t>
   </si>
   <si>
-    <t>Agrupar productos por un listado de categorias</t>
-  </si>
-  <si>
     <t>Visualizar principales caracteristica del producto</t>
   </si>
   <si>
     <t>Debe solo mostrar las primeras 4 caracteristicas relacionadas al producto, ademas del precio y el tiempo tomado.</t>
   </si>
   <si>
-    <t>19.  El aplicativo debe  permitir al interesado visualizar las características más relevantes con una breve descripción, incluyendo el el precio y el tiempo que tomó en el momento de visualizarlos.</t>
-  </si>
-  <si>
-    <t>20. El aplicativo debe permitir al administrador agregar categorías.</t>
-  </si>
-  <si>
-    <t>21. El aplicativo debe permitir al administrador agregar categorías principales.</t>
-  </si>
-  <si>
-    <t>22. El aplicativo debe permitir al administrador agregar subcategorías relacionadas con las categorías principales .</t>
-  </si>
-  <si>
-    <t>24. El aplicativo debe permitir al administrador asignar un icono a cada grupo de categorías.</t>
-  </si>
-  <si>
     <t>Categorias</t>
   </si>
   <si>
-    <t>Agregar categorias</t>
-  </si>
-  <si>
     <t>Agregar categorias principales</t>
   </si>
   <si>
-    <t>Agrugar subcategorias</t>
-  </si>
-  <si>
-    <t>Las subcategorias deben estar relacionadas con una categoria principal</t>
-  </si>
-  <si>
-    <t>Agrupar categorias</t>
-  </si>
-  <si>
-    <t>Todas las las categorias deben estar asociadas a una palabra clave</t>
-  </si>
-  <si>
-    <t>Asignar icono a grupo de categorias</t>
-  </si>
-  <si>
-    <t>25. El aplicativo debe permitir al administrador asignar un icono a cada  categoría principal.</t>
-  </si>
-  <si>
-    <t>23. El aplicativo debe permitir al administrador agrupar categorías por una palabra clave.</t>
-  </si>
-  <si>
-    <t>27. El aplicativo debe permitir al administrador editar las categorías registradas.</t>
-  </si>
-  <si>
-    <t>28. El aplicativo debe permitir al administrador eliminar categorías registradas.</t>
-  </si>
-  <si>
-    <t>29. El aplicativo debe permitir al interesado solicitar los servicios de la empresa.</t>
-  </si>
-  <si>
     <t>Asignar icono a categoria principal</t>
   </si>
   <si>
-    <t>26. El aplicativo debe  permitir visualizar al administrador las categorías registradas.</t>
-  </si>
-  <si>
-    <t>Visualizar categoria</t>
-  </si>
-  <si>
-    <t>Editar categoria</t>
-  </si>
-  <si>
-    <t>Eliminar categoria</t>
-  </si>
-  <si>
     <t>Registrar prorducto</t>
   </si>
   <si>
@@ -411,30 +324,6 @@
     <t>Cada opcion de personalizacion debe contar con una breve descripcion</t>
   </si>
   <si>
-    <t>30. El aplicativo debe  permitir al interesado visualizar  las opciones de personalización del producto definidas por la empresa en el momento de solicitar el servicio.</t>
-  </si>
-  <si>
-    <t>31. El aplicativo debe permitir al interesado visualizar un portafolio reducido relacionado a cada opcion de personalizacion</t>
-  </si>
-  <si>
-    <t>32. El aplicativo debe permitir al interesado aleatorizar los productos del portafolio reducido  de cada opcion de personalizacion</t>
-  </si>
-  <si>
-    <t>33. El aplicativo debe permitir al interesado elegir las opciones de personalización del producto en el momento de solicitar el servicio.</t>
-  </si>
-  <si>
-    <t>35. El aplicativo debe permitir al interesado anexar planos de su producto en el momento de solicitar el servicio  por medio de un formulario.</t>
-  </si>
-  <si>
-    <t>36. El aplicativo, en caso de que el interesado anexe planos en el momento de solicitar el servicio, debe permitir al interesado elegir la necesidad de una visita técnica por medio de un formulario, de lo contrario, la visita técnica será obligatoria.</t>
-  </si>
-  <si>
-    <t>37. El aplicativo debe enviar un mensaje con las preferencias elegidas  y la información proveída por el interesado después de solicitar el servicio por medio de Whatsapp.</t>
-  </si>
-  <si>
-    <t>38. El aplicativo debe enviar un mensaje de notificación al administrador por medio de Whatsapp cuando un interesado solicite el servicio.</t>
-  </si>
-  <si>
     <t>Visualizar protafolio reducido</t>
   </si>
   <si>
@@ -453,9 +342,6 @@
     <t>El registro de elecciones se hara por medio de un formulario</t>
   </si>
   <si>
-    <t>34. El aplicativo debe permitir al interesado proveer de la información relevante para la prestación del servicio en el momento de solicitarlo</t>
-  </si>
-  <si>
     <t>Proveer de informacion para servicio</t>
   </si>
   <si>
@@ -481,6 +367,138 @@
   </si>
   <si>
     <t>Sistema, Whatsapp, Administrador</t>
+  </si>
+  <si>
+    <t>El mensaje debe contener la informacion del usuario y las preferencias de personalizcion elegidas</t>
+  </si>
+  <si>
+    <t>Acceso</t>
+  </si>
+  <si>
+    <t>Editar informacion producto</t>
+  </si>
+  <si>
+    <t>2. El aplicativo debe permitir a los administradores recuperar su clave de acceso a través de un mensaje enviado por WhatsApp.</t>
+  </si>
+  <si>
+    <t>5. El aplicativo, al registrar un producto, debe permitir relacionarlo a diferentes tags que hacen referencia a sus características.</t>
+  </si>
+  <si>
+    <t>11. El aplicativo debe permitir  visualizar imágenes contextuales de la empresa en conjunto con la descripción.</t>
+  </si>
+  <si>
+    <t>15. El aplicativo debe permitir filtrar por uno o más tags relacionados a los productos  en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>18.  El aplicativo debe  permitir al interesado visualizar las características más relevantes con una breve descripción, incluyendo el precio y el tiempo que tomó en el momento de visualizarlos.</t>
+  </si>
+  <si>
+    <t>19. El aplicativo debe permitir al administrador agregar categorías principales.</t>
+  </si>
+  <si>
+    <t>20. El aplicativo debe permitir al administrador editar las categorías principales registradas.</t>
+  </si>
+  <si>
+    <t>21. El aplicativo debe permitir al administrador eliminar las categorías principales registradas.</t>
+  </si>
+  <si>
+    <t>22. El aplicativo debe permitir al administrador visualizar las categorías principales registradas.</t>
+  </si>
+  <si>
+    <t>23. El aplicativo debe permitir al administrador agregar tags.</t>
+  </si>
+  <si>
+    <t>24. El aplicativo debe permitir al administrador relacionar grupos de tags a cada categoría principal.</t>
+  </si>
+  <si>
+    <t>25. El aplicativo debe permitir al administrador agrupar tags por una palabra clave.</t>
+  </si>
+  <si>
+    <t>26. El aplicativo debe permitir al administrador asignar un icono a cada grupo de tags.</t>
+  </si>
+  <si>
+    <t>27. El aplicativo debe permitir al administrador asignar un icono a cada  categoría principal.</t>
+  </si>
+  <si>
+    <t>28. El aplicativo debe  permitir visualizar al administrador los tags registrados.</t>
+  </si>
+  <si>
+    <t>29. El aplicativo debe permitir al administrador editar los tags registrados.</t>
+  </si>
+  <si>
+    <t>30. El aplicativo debe permitir al administrador eliminar los tags registrados.</t>
+  </si>
+  <si>
+    <t>31. El aplicativo debe permitir al interesado solicitar los servicios de la empresa.</t>
+  </si>
+  <si>
+    <t>32. El aplicativo debe  permitir al interesado visualizar  las opciones de personalización del producto definidas por la empresa en el momento de solicitar el servicio.</t>
+  </si>
+  <si>
+    <t>33. El aplicativo debe permitir al interesado visualizar un portafolio reducido relacionado a cada opcion de personalizacion</t>
+  </si>
+  <si>
+    <t>34. El aplicativo debe permitir al interesado aleatorizar los productos del portafolio reducido  de cada opción de personalización</t>
+  </si>
+  <si>
+    <t>35. El aplicativo debe permitir al interesado elegir las opciones de personalización del producto en el momento de solicitar el servicio.</t>
+  </si>
+  <si>
+    <t>36. El aplicativo debe permitir al interesado proveer de la información relevante para la prestación del servicio en el momento de solicitarlo.</t>
+  </si>
+  <si>
+    <t>37. El aplicativo debe permitir al interesado anexar planos de su producto en el momento de solicitar el servicio  por medio de un formulario.</t>
+  </si>
+  <si>
+    <t>38. El aplicativo, en caso de que el interesado anexe planos en el momento de solicitar el servicio, debe permitir al interesado elegir la necesidad de una visita técnica por medio de un formulario, de lo contrario, la visita técnica será obligatoria.</t>
+  </si>
+  <si>
+    <t>39. El aplicativo debe enviar un mensaje con las preferencias elegidas  y la información proveída por el interesado después de solicitar el servicio por medio de Whatsapp.</t>
+  </si>
+  <si>
+    <t>40. El aplicativo debe enviar un mensaje de notificación al administrador por medio de Whatsapp cuando un interesado solicite el servicio.</t>
+  </si>
+  <si>
+    <t>RF039</t>
+  </si>
+  <si>
+    <t>RF040</t>
+  </si>
+  <si>
+    <t>Editar categorias principales</t>
+  </si>
+  <si>
+    <t>Eliminar categorias principales</t>
+  </si>
+  <si>
+    <t>Visualizar categorias principales</t>
+  </si>
+  <si>
+    <t>Agregar tags</t>
+  </si>
+  <si>
+    <t>Agrupar tags</t>
+  </si>
+  <si>
+    <t>Asiganar tags a categoria principal</t>
+  </si>
+  <si>
+    <t>Todas los tags deben estar asociadas a una palabra clave</t>
+  </si>
+  <si>
+    <t>Asignar icono a grupo de tags</t>
+  </si>
+  <si>
+    <t>Visualizar tags</t>
+  </si>
+  <si>
+    <t>Editar tags</t>
+  </si>
+  <si>
+    <t>Eliminar tags</t>
+  </si>
+  <si>
+    <t>Relacionar tags  al producto</t>
   </si>
 </sst>
 </file>
@@ -601,7 +619,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -897,13 +915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE85C938-6F77-4D8A-A1A5-328184A55C44}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="4" width="23.42578125" customWidth="1"/>
@@ -913,910 +931,954 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.CONCAT("usecase '",C2,"' as ",A2)</f>
-        <v>usecase 'Iniciar sesión' as RF001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <f>_xlfn.CONCAT("usecase '",A2,"-",C2,"' as ",A2)</f>
+        <v>usecase 'RF001-Iniciar sesión' as RF001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I40" si="0">_xlfn.CONCAT("usecase '",C3,"' as ",A3)</f>
-        <v>usecase 'Recuperar clave' as RF002</v>
+        <f t="shared" ref="I3:I41" si="0">_xlfn.CONCAT("usecase '",A3,"-",C3,"' as ",A3)</f>
+        <v>usecase 'RF002-Recuperar clave' as RF002</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Registrar prorducto' as RF003</v>
+        <f>_xlfn.CONCAT("usecase '",A4,"-",C4,"' as ",A4)</f>
+        <v>usecase 'RF003-Registrar prorducto' as RF003</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Subir imágenes del producto' as RF004</v>
+        <v>usecase 'RF004-Subir imágenes del producto' as RF004</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Relacionar categorias  al producto' as RF005</v>
+        <v>usecase 'RF005-Relacionar tags  al producto' as RF005</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Relacionar categoria principal al producto' as RF006</v>
+        <v>usecase 'RF006-Relacionar categoria principal al producto' as RF006</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Editar producto' as RF007</v>
+        <v>usecase 'RF007-Editar informacion producto' as RF007</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>usecase ' Eliminar producto' as RF008</v>
+        <v>usecase 'RF008- Eliminar producto' as RF008</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar informacion de la empresa' as RF009</v>
+        <v>usecase 'RF009-Visualizar informacion de la empresa' as RF009</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Editar informacion de la emrpesa de la empresa' as RF010</v>
+        <v>usecase 'RF010-Editar informacion de la emrpesa de la empresa' as RF010</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar imagenes empresariales' as RF011</v>
+        <v>usecase 'RF011-Visualizar imagenes empresariales' as RF011</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Agregar imagenes empresarial' as RF012</v>
+        <v>usecase 'RF012-Agregar imagenes empresarial' as RF012</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Eliminar imagenes empresariales' as RF013</v>
+        <v>usecase 'RF013-Eliminar imagenes empresariales' as RF013</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" s="5"/>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar productos' as RF014</v>
+        <v>usecase 'RF014-Visualizar productos' as RF014</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Filtrar productos por categorias' as RF015</v>
+        <v>usecase 'RF015-Filtrar productos por categorias' as RF015</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Organizar aleatoriamente los productos' as RF016</v>
+        <v>usecase 'RF016-Organizar aleatoriamente los productos' as RF016</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF017-Organizar cronologicamente los productos' as RF017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF018-Visualizar principales caracteristica del producto' as RF018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Organizar cronologicamente los productos' as RF017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="G19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Agrupar productos por un listado de categorias' as RF018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar principales caracteristica del producto' as RF019</v>
+        <v>usecase 'RF019-Agregar categorias principales' as RF019</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Agregar categorias' as RF020</v>
+        <v>usecase 'RF020-Editar categorias principales' as RF020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Agregar categorias principales' as RF021</v>
+        <v>usecase 'RF021-Eliminar categorias principales' as RF021</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="G23" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Agrugar subcategorias' as RF022</v>
+        <v>usecase 'RF022-Visualizar categorias principales' as RF022</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Agrupar categorias' as RF023</v>
+        <v>usecase 'RF023-Agregar tags' as RF023</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Asignar icono a grupo de categorias' as RF024</v>
+        <v>usecase 'RF024-Asiganar tags a categoria principal' as RF024</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Asignar icono a categoria principal' as RF025</v>
+        <v>usecase 'RF025-Agrupar tags' as RF025</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5"/>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar categoria' as RF026</v>
+        <v>usecase 'RF026-Asignar icono a grupo de tags' as RF026</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="G28" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Editar categoria' as RF027</v>
+        <v>usecase 'RF027-Asignar icono a categoria principal' as RF027</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E29" s="5"/>
       <c r="G29" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Eliminar categoria' as RF028</v>
+        <v>usecase 'RF028-Visualizar tags' as RF028</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Solicitar servicio' as RF029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>usecase 'RF029-Editar tags' as RF029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>124</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="G31" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar opciones de personalizacion' as RF030</v>
+        <v>usecase 'RF030-Eliminar tags' as RF030</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>134</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Visualizar protafolio reducido' as RF031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>usecase 'RF031-Solicitar servicio' as RF031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Aleatorizar portafolio reducido' as RF032</v>
+        <v>usecase 'RF032-Visualizar opciones de personalizacion' as RF032</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Elegir opciones de personalizacion' as RF033</v>
+        <v>usecase 'RF033-Visualizar protafolio reducido' as RF033</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>usecase 'Proveer de informacion para servicio' as RF034</v>
+        <v>usecase 'RF034-Aleatorizar portafolio reducido' as RF034</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF035-Elegir opciones de personalizacion' as RF035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF036-Proveer de informacion para servicio' as RF036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF037-Anexar planos' as RF037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF038-Solicitar visita tecnica' as RF038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF039-Enviar mensaje de solicitud' as RF039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Anexar planos' as RF035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Solicitar visita tecnica' as RF036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="G38" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Enviar mensaje de solicitud' as RF037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="G39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>usecase 'Enviar mensaje de notificacion de solicitud' as RF038</v>
+      <c r="B41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="G41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>usecase 'RF040-Enviar mensaje de notificacion de solicitud' as RF040</v>
       </c>
     </row>
   </sheetData>
@@ -1827,6 +1889,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100609AB960DD10A74DA5B1E40C7DD2641B" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0acc7ea0910c9d1ae7df0ca63b335fb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xmlns:ns4="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f302217f2d4eb73d18310563738762c6" ns3:_="" ns4:_="">
     <xsd:import namespace="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
@@ -2067,24 +2146,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAED4DD-8F59-4A9D-BE05-DB347B1D4B84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f"/>
+    <ds:schemaRef ds:uri="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87f76bbe-2dff-426d-85a3-6c55c733fe8f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28557432-E02E-43EB-985A-CF345F1841C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79AF36BC-0DF6-41DA-8468-07D1B0C1A527}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2101,29 +2188,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28557432-E02E-43EB-985A-CF345F1841C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAED4DD-8F59-4A9D-BE05-DB347B1D4B84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd04eb5c-2364-439c-9b1a-6f6fe7697d6f"/>
-    <ds:schemaRef ds:uri="87f76bbe-2dff-426d-85a3-6c55c733fe8f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RF.xlsx
+++ b/RF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\OneDrive\Documentos\U\JuanCarlos\MetalK_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7E72AD-C37F-4534-B218-98EAF3AFFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E994146-4EE1-470F-BEA8-FC725CE708A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{8F7574D0-AC0C-4C4F-95DB-BA0D2F86BEAF}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -630,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1946,7 +1949,7 @@
       <c r="D43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
       <c r="G43" s="2" t="s">
         <v>158</v>
       </c>
